--- a/ボンバーマン＿スケジュール.xlsx
+++ b/ボンバーマン＿スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryou\Desktop\Team_c\Team_C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユイ\Desktop\グループ制作\Team_C\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,8 +95,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,35 +382,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:BP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="62" max="68" width="9.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.45">
+      <c r="B1" s="1">
+        <v>44860</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44861</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44862</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44863</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44864</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44865</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44866</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44867</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44868</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44869</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44870</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44871</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44872</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44873</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44874</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44875</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44876</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44877</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44878</v>
+      </c>
+      <c r="U1" s="1">
+        <v>44879</v>
+      </c>
+      <c r="V1" s="1">
+        <v>44880</v>
+      </c>
+      <c r="W1" s="1">
+        <v>44881</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44882</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>44883</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>44884</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44885</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44886</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44887</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44888</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44889</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44890</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44891</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44892</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44893</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>44894</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>44895</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>44896</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>44897</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>44898</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>44899</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>44900</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>44901</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44902</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44903</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44904</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44905</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>44906</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>44907</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>44908</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>44909</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>44910</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>44911</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>44912</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>44913</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>44914</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>44915</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>44916</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>44917</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>44918</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>44919</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>44920</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>44921</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>44922</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>44923</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>44924</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>44925</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/ボンバーマン＿スケジュール.xlsx
+++ b/ボンバーマン＿スケジュール.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>敵</t>
     <rPh sb="0" eb="1">
@@ -49,6 +45,41 @@
   </si>
   <si>
     <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WASD操作</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾置く</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COM自動操作</t>
+    <rPh sb="3" eb="7">
+      <t>ジドウソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -89,17 +120,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BV8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:BP1"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -394,235 +652,287 @@
     <col min="62" max="68" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="B1" s="1">
+    <row r="1" spans="1:74" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1">
         <v>44860</v>
       </c>
-      <c r="C1" s="1">
+      <c r="I1" s="1">
         <v>44861</v>
       </c>
-      <c r="D1" s="1">
+      <c r="J1" s="1">
         <v>44862</v>
       </c>
-      <c r="E1" s="1">
+      <c r="K1" s="1">
         <v>44863</v>
       </c>
-      <c r="F1" s="1">
+      <c r="L1" s="1">
         <v>44864</v>
       </c>
-      <c r="G1" s="1">
+      <c r="M1" s="1">
         <v>44865</v>
       </c>
-      <c r="H1" s="1">
+      <c r="N1" s="1">
         <v>44866</v>
       </c>
-      <c r="I1" s="1">
+      <c r="O1" s="1">
         <v>44867</v>
       </c>
-      <c r="J1" s="1">
+      <c r="P1" s="1">
         <v>44868</v>
       </c>
-      <c r="K1" s="1">
+      <c r="Q1" s="1">
         <v>44869</v>
       </c>
-      <c r="L1" s="1">
+      <c r="R1" s="1">
         <v>44870</v>
       </c>
-      <c r="M1" s="1">
+      <c r="S1" s="1">
         <v>44871</v>
       </c>
-      <c r="N1" s="1">
+      <c r="T1" s="1">
         <v>44872</v>
       </c>
-      <c r="O1" s="1">
+      <c r="U1" s="1">
         <v>44873</v>
       </c>
-      <c r="P1" s="1">
+      <c r="V1" s="1">
         <v>44874</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="W1" s="1">
         <v>44875</v>
       </c>
-      <c r="R1" s="1">
+      <c r="X1" s="1">
         <v>44876</v>
       </c>
-      <c r="S1" s="1">
+      <c r="Y1" s="1">
         <v>44877</v>
       </c>
-      <c r="T1" s="1">
+      <c r="Z1" s="1">
         <v>44878</v>
       </c>
-      <c r="U1" s="1">
+      <c r="AA1" s="1">
         <v>44879</v>
       </c>
-      <c r="V1" s="1">
+      <c r="AB1" s="1">
         <v>44880</v>
       </c>
-      <c r="W1" s="1">
+      <c r="AC1" s="1">
         <v>44881</v>
       </c>
-      <c r="X1" s="1">
+      <c r="AD1" s="1">
         <v>44882</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="AE1" s="1">
         <v>44883</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AF1" s="1">
         <v>44884</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AG1" s="1">
         <v>44885</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AH1" s="1">
         <v>44886</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AI1" s="1">
         <v>44887</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AJ1" s="1">
         <v>44888</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AK1" s="1">
         <v>44889</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AL1" s="1">
         <v>44890</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AM1" s="1">
         <v>44891</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AN1" s="1">
         <v>44892</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AO1" s="1">
         <v>44893</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AP1" s="1">
         <v>44894</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AQ1" s="1">
         <v>44895</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AR1" s="1">
         <v>44896</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AS1" s="1">
         <v>44897</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AT1" s="1">
         <v>44898</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AU1" s="1">
         <v>44899</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AV1" s="1">
         <v>44900</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AW1" s="1">
         <v>44901</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AX1" s="1">
         <v>44902</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AY1" s="1">
         <v>44903</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AZ1" s="1">
         <v>44904</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="BA1" s="1">
         <v>44905</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="BB1" s="1">
         <v>44906</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="BC1" s="1">
         <v>44907</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="BD1" s="1">
         <v>44908</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="BE1" s="1">
         <v>44909</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="BF1" s="1">
         <v>44910</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BG1" s="1">
         <v>44911</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BH1" s="1">
         <v>44912</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BI1" s="1">
         <v>44913</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BJ1" s="1">
         <v>44914</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BK1" s="1">
         <v>44915</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BL1" s="1">
         <v>44916</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BM1" s="1">
         <v>44917</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BN1" s="1">
         <v>44918</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BO1" s="1">
         <v>44919</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BP1" s="1">
         <v>44920</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BQ1" s="1">
         <v>44921</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BR1" s="1">
         <v>44922</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BS1" s="1">
         <v>44923</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BT1" s="1">
         <v>44924</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BU1" s="1">
         <v>44925</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BV1" s="1">
         <v>44926</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="10"/>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="10"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="8" spans="1:74" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ボンバーマン＿スケジュール.xlsx
+++ b/ボンバーマン＿スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>敵</t>
     <rPh sb="0" eb="1">
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -82,6 +78,31 @@
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スコア表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム最後</t>
+    <rPh sb="4" eb="6">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -220,46 +241,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -287,28 +273,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -321,44 +435,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV8"/>
+  <dimension ref="A1:BT11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -652,286 +793,338 @@
     <col min="62" max="68" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44860</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44861</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44862</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44863</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44864</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44865</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44866</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44867</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44868</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44869</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44870</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44871</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44872</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44873</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44874</v>
+      </c>
+      <c r="U1" s="1">
+        <v>44875</v>
+      </c>
+      <c r="V1" s="1">
+        <v>44876</v>
+      </c>
+      <c r="W1" s="1">
+        <v>44877</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44878</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>44879</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>44880</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>44881</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>44882</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>44883</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>44884</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>44885</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44886</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44887</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44888</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44889</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>44890</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>44891</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>44892</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>44893</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>44894</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>44895</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>44896</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>44897</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44898</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44899</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44900</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44901</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>44902</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>44903</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>44904</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>44905</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>44906</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>44907</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>44908</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>44909</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>44910</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>44911</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>44912</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>44913</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>44914</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>44915</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>44916</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>44917</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>44918</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>44919</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>44920</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>44921</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>44922</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>44923</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>44924</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>44925</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1">
-        <v>44860</v>
-      </c>
-      <c r="I1" s="1">
-        <v>44861</v>
-      </c>
-      <c r="J1" s="1">
-        <v>44862</v>
-      </c>
-      <c r="K1" s="1">
-        <v>44863</v>
-      </c>
-      <c r="L1" s="1">
-        <v>44864</v>
-      </c>
-      <c r="M1" s="1">
-        <v>44865</v>
-      </c>
-      <c r="N1" s="1">
-        <v>44866</v>
-      </c>
-      <c r="O1" s="1">
-        <v>44867</v>
-      </c>
-      <c r="P1" s="1">
-        <v>44868</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>44869</v>
-      </c>
-      <c r="R1" s="1">
-        <v>44870</v>
-      </c>
-      <c r="S1" s="1">
-        <v>44871</v>
-      </c>
-      <c r="T1" s="1">
-        <v>44872</v>
-      </c>
-      <c r="U1" s="1">
-        <v>44873</v>
-      </c>
-      <c r="V1" s="1">
-        <v>44874</v>
-      </c>
-      <c r="W1" s="1">
-        <v>44875</v>
-      </c>
-      <c r="X1" s="1">
-        <v>44876</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>44877</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>44878</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>44879</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>44880</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>44881</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>44882</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>44883</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>44884</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>44885</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>44886</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>44887</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>44888</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>44889</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>44890</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>44891</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>44892</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>44893</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>44894</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>44895</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>44896</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>44897</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44898</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>44899</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>44900</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>44901</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>44902</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>44903</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>44904</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>44905</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>44906</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>44907</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>44908</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>44909</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>44910</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>44911</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>44912</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>44913</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>44914</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>44915</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>44916</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>44917</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>44918</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>44919</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>44920</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>44921</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>44922</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>44923</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>44924</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>44925</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>44926</v>
-      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+    <row r="3" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.45">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11"/>
+    <row r="9" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:74" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17"/>
+    <row r="11" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="8">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ボンバーマン＿スケジュール.xlsx
+++ b/ボンバーマン＿スケジュール.xlsx
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -204,9 +204,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -214,6 +212,82 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -224,12 +298,64 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -242,19 +368,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -262,161 +375,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,14 +391,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,65 +421,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +752,7 @@
   <dimension ref="A1:BT11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -794,13 +762,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1">
@@ -1006,92 +974,93 @@
       </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.45">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -1099,24 +1068,29 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:72" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A11:B11"/>
@@ -1124,7 +1098,6 @@
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
